--- a/week10/socialcircuitry.xlsx
+++ b/week10/socialcircuitry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Charlie/gradstats2/week10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{92685A3D-4634-6742-93D8-A49F52C5CD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B8F6BBF9-9420-3041-8F1E-7CEF542C35E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="780" windowWidth="24540" windowHeight="14040"/>
+    <workbookView xWindow="27200" yWindow="0" windowWidth="33600" windowHeight="21000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,11 +919,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="5" ySplit="12" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
